--- a/ipa/justerte råvaremengder.xlsx
+++ b/ipa/justerte råvaremengder.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17571"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Org volum</t>
   </si>
@@ -95,15 +95,6 @@
     <t>Munich Malt (25 EBC) Castle</t>
   </si>
   <si>
-    <t>(2pk)</t>
-  </si>
-  <si>
-    <t>(7 pk)</t>
-  </si>
-  <si>
-    <t>(2 pk)</t>
-  </si>
-  <si>
     <t>Chinook 100G Pellets (12,8%) </t>
   </si>
   <si>
@@ -117,6 +108,18 @@
   </si>
   <si>
     <t>100g</t>
+  </si>
+  <si>
+    <t>(1pk)</t>
+  </si>
+  <si>
+    <t>(1 pk)</t>
+  </si>
+  <si>
+    <t>(4 pk)</t>
+  </si>
+  <si>
+    <t>(evt 2 hvis starter)</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+      <selection activeCell="R35" sqref="R35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,11 +533,11 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>62.5</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <f>B4/A4</f>
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -572,19 +575,19 @@
       </c>
       <c r="E8" s="2">
         <f t="shared" ref="E8:E9" si="0">B8*$C$4*D8</f>
-        <v>17.25</v>
+        <v>11.040000000000001</v>
       </c>
       <c r="F8" s="2">
-        <v>17.3</v>
+        <v>11</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H8">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -602,16 +605,16 @@
       </c>
       <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>2.375</v>
+        <v>1.52</v>
       </c>
       <c r="F9" s="2">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H9">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -629,16 +632,16 @@
       </c>
       <c r="E10" s="2">
         <f>B10*$C$4*D10</f>
-        <v>2.375</v>
+        <v>1.52</v>
       </c>
       <c r="F10" s="2">
-        <v>2.2999999999999998</v>
+        <v>1.5</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H10">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -656,16 +659,16 @@
       </c>
       <c r="E11" s="2">
         <f>B11*$C$4*D11</f>
-        <v>1.875</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="F11" s="2">
-        <v>1.9</v>
+        <v>1.2</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -686,23 +689,23 @@
         <v>67</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
         <v>1</v>
       </c>
       <c r="E13" s="2">
         <f>B13*$C$4*D13</f>
-        <v>167.5</v>
+        <v>107.2</v>
       </c>
       <c r="F13" s="2">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H13" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -714,21 +717,23 @@
         <v>265</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2">
         <v>1</v>
       </c>
       <c r="E14" s="2">
         <f>B14*$C$4*D14</f>
-        <v>662.5</v>
-      </c>
-      <c r="F14" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="F14" s="2">
+        <v>400</v>
+      </c>
       <c r="G14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -739,21 +744,23 @@
         <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D15" s="2">
         <v>1</v>
       </c>
       <c r="E15" s="2">
         <f>B15*$C$4*D15</f>
-        <v>125</v>
-      </c>
-      <c r="F15" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="F15" s="2">
+        <v>100</v>
+      </c>
       <c r="G15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -765,7 +772,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -778,16 +785,19 @@
       </c>
       <c r="E17" s="2">
         <f>B17*$C$4*D17</f>
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="F17" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -796,7 +806,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -805,7 +815,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -814,7 +824,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
